--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC6_TC1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1260" yWindow="1032" windowWidth="21600" windowHeight="11328" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="-14220" windowWidth="21600" windowHeight="11325" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantitativeMetrics" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="_Values" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -551,14 +551,10 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Test is not passing compared to baseline. But requirements says that  a message should be shown, but any message is shown.</t>
-        </is>
-      </c>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="inlineStr">
         <is>
           <t>If the test pass or fails compared to baseline tests (some result or not)</t>

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC6_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2725532076602558</v>
+        <v>0.2749341600412081</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.27255320766025576, 'ngram_match_score': 0.1497660078850516, 'weighted_ngram_match_score': 0.15464800618792413, 'syntax_match_score': 0.5857988165680473, 'dataflow_match_score': 0.2}</t>
+          <t>{'codebleu': 0.27493416004120813, 'ngram_match_score': 0.1497660078850516, 'weighted_ngram_match_score': 0.15464800618792413, 'syntax_match_score': 0.5857988165680473, 'dataflow_match_score': 0.20952380952380953}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
